--- a/520H0510_NguyenTuanAnh.xlsx
+++ b/520H0510_NguyenTuanAnh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Nguyễn Tuấn Anh</t>
   </si>
@@ -33,13 +33,414 @@
   </si>
   <si>
     <t>520H0510</t>
+  </si>
+  <si>
+    <t>Rubrics Assessment:</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Rubrics</t>
+  </si>
+  <si>
+    <t>0-0.25</t>
+  </si>
+  <si>
+    <t>0.25 – 0.5</t>
+  </si>
+  <si>
+    <t>0.5 – 1.0</t>
+  </si>
+  <si>
+    <t>1/           Project Management Plan</t>
+  </si>
+  <si>
+    <t>-        Good        project management  plan  but have    some    lack    of depth and detail</t>
+  </si>
+  <si>
+    <t>-  Clear  and  correct project management plan</t>
+  </si>
+  <si>
+    <t>-    Having    use    case diagrams     but     with some acceptable errors</t>
+  </si>
+  <si>
+    <t>- Having correct and sufficient   use   case diagrams</t>
+  </si>
+  <si>
+    <t>-    Having    use    case specifications but with some acceptable errors</t>
+  </si>
+  <si>
+    <t>- Having correct and sufficient   use   case specifications</t>
+  </si>
+  <si>
+    <t>3/ Architecture design</t>
+  </si>
+  <si>
+    <t>-  Having  architecture design  but  with  some acceptable errors</t>
+  </si>
+  <si>
+    <t>- Having correct and sufficient architecture design</t>
+  </si>
+  <si>
+    <t>4/ Design</t>
+  </si>
+  <si>
+    <t>Class diagrams</t>
+  </si>
+  <si>
+    <t>-        Having        class diagrams     but     with some acceptable errors</t>
+  </si>
+  <si>
+    <t>- Having correct and sufficient          class diagrams</t>
+  </si>
+  <si>
+    <t>Sequence diagrams</t>
+  </si>
+  <si>
+    <t>-     Having     sequence diagrams     but     with some acceptable errors</t>
+  </si>
+  <si>
+    <t>- Having correct and sufficient   sequence diagrams</t>
+  </si>
+  <si>
+    <t>Database design</t>
+  </si>
+  <si>
+    <t>-     Having     database design  but  with  some acceptable errors</t>
+  </si>
+  <si>
+    <t>- Having correct and sufficient    database design</t>
+  </si>
+  <si>
+    <t>5/   Build   apps with  at  least  4 main functions</t>
+  </si>
+  <si>
+    <t>6/           Coding Convention</t>
+  </si>
+  <si>
+    <t>-   Having   thorough coding convention</t>
+  </si>
+  <si>
+    <t>7/ Testing, Test case, Unit test</t>
+  </si>
+  <si>
+    <t>-   Having   thorough testing and unit test</t>
+  </si>
+  <si>
+    <t>8/ SVN/GIT</t>
+  </si>
+  <si>
+    <t>-     Not     using GIT/SVN</t>
+  </si>
+  <si>
+    <t>-  Using  GIT/SVN  but not thorougth</t>
+  </si>
+  <si>
+    <t>9/    Hình    thức báo cáo, demo</t>
+  </si>
+  <si>
+    <t>-      Few      significant errors/mistakes         in report</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Points
+/10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-      No      clear project management plan,              no
+analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2/ Requirements
+Specification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Use              case
+diagrams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-   No   use   case diagrams        or having significant
+errors.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Use              case
+specification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-   No   use   case specification  or having significant
+errors.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-                    No
+architecture design or having significant
+errors.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-      No      class
+diagrams        or having significant
+errors.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-   No   sequence diagrams        or having significant
+errors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-   No   database design or having significant
+errors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- No application
+- No demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-     Having     runnable applications          with acceptable bugs
+- Having video demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-   Having   runnable applications      with good,              stable functionalities
+- High quality video
+demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- No or minimal coding
+convention.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-      Having      coding convention    but    not
+thorough</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- No testing
+- No unit test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-  Having  testing  and unit     test     but     not
+thorought</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-   Using   GIT/SVN
+throughout          the whole project.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-   Do   not   use standard report
+-             Having
+significant grammatical and        stylistic
+errors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Rich in content
+- Minimal errors
+-   No   grammatical errors
+- Full references</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10/             High Distinction Task   or   Extra Point</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-     B2C Web
+-     Mobile  App  via API
+-     Or   MVC   Web
+well performance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ 1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0;[Red]0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +454,71 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -85,15 +541,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,34 +982,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="235.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="168" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="252" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="151.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="151.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="151.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30">
+        <v>6.25</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C20:E20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/520H0510_NguyenTuanAnh.xlsx
+++ b/520H0510_NguyenTuanAnh.xlsx
@@ -618,89 +618,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,337 +1013,335 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="235.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="8">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <v>0.5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>0.5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="168" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="252" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="151.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="10">
         <v>1.5</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="168" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="6">
         <v>0.5</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="252" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="13">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="151.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="151.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="13">
+    </row>
+    <row r="19" spans="1:6" ht="168" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="22">
         <v>1</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="151.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="25">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="24" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30">
-        <v>6.25</v>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="25">
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>

--- a/520H0510_NguyenTuanAnh.xlsx
+++ b/520H0510_NguyenTuanAnh.xlsx
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1146,9 @@
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -1313,7 +1315,7 @@
         <v>60</v>
       </c>
       <c r="F18" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="168" x14ac:dyDescent="0.3">
@@ -1341,7 +1343,7 @@
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="25">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
